--- a/inst/extdata/portawaterperu.xlsx
+++ b/inst/extdata/portawaterperu.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -116,12 +116,6 @@
     <t xml:space="preserve">flow_unit</t>
   </si>
   <si>
-    <t xml:space="preserve">chlorine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filtration</t>
-  </si>
-  <si>
     <t xml:space="preserve">chlorine_res</t>
   </si>
   <si>
@@ -204,9 +198,6 @@
   </si>
   <si>
     <t xml:space="preserve">LITROS POR SEGUNDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No se tiene dato</t>
   </si>
   <si>
     <t xml:space="preserve">MILIGRAMOS POR LITRO</t>
@@ -1066,22 +1057,16 @@
       <c r="AZ1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" t="n">
         <v>147509</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D2" t="n">
         <v>-14.4436</v>
@@ -1096,10 +1081,10 @@
         <v>2003</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J2" t="n">
         <v>400</v>
@@ -1129,7 +1114,7 @@
         <v>440657</v>
       </c>
       <c r="S2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T2" t="n">
         <v>-14.4436</v>
@@ -1141,109 +1126,103 @@
         <v>3686</v>
       </c>
       <c r="W2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y2" s="1" t="n">
         <v>42249</v>
       </c>
       <c r="Z2"/>
       <c r="AA2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AC2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AD2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AF2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AG2" t="n">
         <v>1</v>
       </c>
       <c r="AH2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>446651</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-14.4436</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-72.053</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>3686</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>438659</v>
+      </c>
+      <c r="AR2" t="s">
         <v>63</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AS2" t="n">
+        <v>-14.4436</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-72.053</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>3686</v>
+      </c>
+      <c r="AV2" t="s">
         <v>64</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>446651</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>-14.4436</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>-72.053</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>3686</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>438659</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>-14.4436</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>-72.053</v>
-      </c>
       <c r="AW2" t="n">
-        <v>3686</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>67</v>
+        <v>444653</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>24</v>
       </c>
       <c r="AY2" t="n">
-        <v>444653</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA2" t="n">
         <v>300</v>
       </c>
-      <c r="BB2" t="s">
-        <v>60</v>
+      <c r="AZ2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B3" t="n">
         <v>147710</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D3" t="n">
         <v>-12.744</v>
@@ -1258,10 +1237,10 @@
         <v>2001</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J3" t="n">
         <v>400</v>
@@ -1291,7 +1270,7 @@
         <v>441235</v>
       </c>
       <c r="S3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T3" t="n">
         <v>-12.744</v>
@@ -1303,109 +1282,103 @@
         <v>1064</v>
       </c>
       <c r="W3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y3" s="1" t="n">
         <v>42347</v>
       </c>
       <c r="Z3"/>
       <c r="AA3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AC3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AD3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AF3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AG3" t="n">
         <v>3</v>
       </c>
       <c r="AH3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>447229</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>-12.744</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>-72.5662</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>1064</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>439237</v>
+      </c>
+      <c r="AR3" t="s">
         <v>63</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AS3" t="n">
+        <v>-12.744</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>-72.5662</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>1064</v>
+      </c>
+      <c r="AV3" t="s">
         <v>64</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>447229</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>-12.744</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>-72.5662</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>1064</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>439237</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>-12.744</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>-72.5662</v>
-      </c>
       <c r="AW3" t="n">
-        <v>1064</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>67</v>
+        <v>445231</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>24</v>
       </c>
       <c r="AY3" t="n">
-        <v>445231</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA3" t="n">
         <v>100</v>
       </c>
-      <c r="BB3" t="s">
-        <v>60</v>
+      <c r="AZ3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B4" t="n">
         <v>147725</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D4" t="n">
         <v>-13.0236</v>
@@ -1420,10 +1393,10 @@
         <v>2000</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J4" t="n">
         <v>90</v>
@@ -1453,7 +1426,7 @@
         <v>440654</v>
       </c>
       <c r="S4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T4" t="n">
         <v>-13.0236</v>
@@ -1465,109 +1438,103 @@
         <v>1886</v>
       </c>
       <c r="W4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y4" s="1" t="n">
         <v>42256</v>
       </c>
       <c r="Z4"/>
       <c r="AA4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AC4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AD4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AF4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AG4" t="n">
         <v>2</v>
       </c>
       <c r="AH4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>446648</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-13.0236</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-72.4919</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1886</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>438656</v>
+      </c>
+      <c r="AR4" t="s">
         <v>63</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AS4" t="n">
+        <v>-13.0236</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>-72.4919</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>1886</v>
+      </c>
+      <c r="AV4" t="s">
         <v>64</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>446648</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>-13.0236</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>-72.4919</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>1886</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>438656</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>-13.0236</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>-72.4919</v>
-      </c>
       <c r="AW4" t="n">
-        <v>1886</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>67</v>
+        <v>444650</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>24</v>
       </c>
       <c r="AY4" t="n">
-        <v>444650</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA4" t="n">
         <v>30</v>
       </c>
-      <c r="BB4" t="s">
-        <v>60</v>
+      <c r="AZ4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B5" t="n">
         <v>159638</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D5" t="n">
         <v>-9.21315</v>
@@ -1582,10 +1549,10 @@
         <v>2005</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J5" t="n">
         <v>250</v>
@@ -1615,7 +1582,7 @@
         <v>474062</v>
       </c>
       <c r="S5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T5" t="n">
         <v>-9.21315</v>
@@ -1627,109 +1594,103 @@
         <v>193</v>
       </c>
       <c r="W5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y5" s="1" t="n">
         <v>42252</v>
       </c>
       <c r="Z5"/>
       <c r="AA5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AC5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AD5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AF5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AG5" t="n">
         <v>5</v>
       </c>
       <c r="AH5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>480032</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-9.21315</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-74.8763</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>193</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>472072</v>
+      </c>
+      <c r="AR5" t="s">
         <v>63</v>
       </c>
-      <c r="AI5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>480032</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
+      <c r="AS5" t="n">
         <v>-9.21315</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AT5" t="n">
         <v>-74.8763</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AU5" t="n">
         <v>193</v>
       </c>
-      <c r="AS5" t="n">
-        <v>472072</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>-9.21315</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>-74.8763</v>
+      <c r="AV5" t="s">
+        <v>58</v>
       </c>
       <c r="AW5" t="n">
-        <v>193</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>60</v>
+        <v>478042</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>24</v>
       </c>
       <c r="AY5" t="n">
-        <v>478042</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA5" t="n">
         <v>35</v>
       </c>
-      <c r="BB5" t="s">
-        <v>60</v>
+      <c r="AZ5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B6" t="n">
         <v>159647</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D6" t="n">
         <v>-10.0781</v>
@@ -1744,10 +1705,10 @@
         <v>2013</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J6" t="n">
         <v>1613.81063122924</v>
@@ -1777,7 +1738,7 @@
         <v>474104</v>
       </c>
       <c r="S6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T6" t="n">
         <v>-10.0781</v>
@@ -1789,109 +1750,103 @@
         <v>3512</v>
       </c>
       <c r="W6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Y6" s="1" t="n">
         <v>42256</v>
       </c>
       <c r="Z6"/>
       <c r="AA6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AB6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AC6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AD6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AE6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AF6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="n">
         <v>3</v>
       </c>
       <c r="AH6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>480074</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>-10.0781</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>-76.6316</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>3512</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>472114</v>
+      </c>
+      <c r="AR6" t="s">
         <v>63</v>
       </c>
-      <c r="AI6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>480074</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>-10.0781</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AT6" t="n">
         <v>-76.6316</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AU6" t="n">
         <v>3512</v>
       </c>
-      <c r="AS6" t="n">
-        <v>472114</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>-10.0781</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>-76.6316</v>
+      <c r="AV6" t="s">
+        <v>58</v>
       </c>
       <c r="AW6" t="n">
-        <v>3512</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>60</v>
+        <v>478084</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>24</v>
       </c>
       <c r="AY6" t="n">
-        <v>478084</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA6" t="n">
         <v>602</v>
       </c>
-      <c r="BB6" t="s">
-        <v>60</v>
+      <c r="AZ6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B7" t="n">
         <v>159674</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D7" t="n">
         <v>-9.85874</v>
@@ -1906,10 +1861,10 @@
         <v>2007</v>
       </c>
       <c r="H7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J7" t="n">
         <v>2355</v>
@@ -1939,7 +1894,7 @@
         <v>473871</v>
       </c>
       <c r="S7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T7" t="n">
         <v>-9.85874</v>
@@ -1951,109 +1906,103 @@
         <v>3254</v>
       </c>
       <c r="W7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y7" s="1" t="n">
         <v>42166</v>
       </c>
       <c r="Z7"/>
       <c r="AA7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AC7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AD7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AF7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AG7" t="n">
         <v>29</v>
       </c>
       <c r="AH7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>479841</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-9.85874</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-76.6084</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>3254</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>471881</v>
+      </c>
+      <c r="AR7" t="s">
         <v>63</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AS7" t="n">
+        <v>-9.85874</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-76.6084</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>3254</v>
+      </c>
+      <c r="AV7" t="s">
         <v>64</v>
       </c>
-      <c r="AJ7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>479841</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>-9.85874</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>-76.6084</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>3254</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>471881</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>-9.85874</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>-76.6084</v>
-      </c>
       <c r="AW7" t="n">
-        <v>3254</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>67</v>
+        <v>477851</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>24</v>
       </c>
       <c r="AY7" t="n">
-        <v>477851</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA7" t="n">
         <v>1884</v>
       </c>
-      <c r="BB7" t="s">
-        <v>60</v>
+      <c r="AZ7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B8" t="n">
         <v>159704</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D8" t="n">
         <v>-9.79533</v>
@@ -2068,10 +2017,10 @@
         <v>2008</v>
       </c>
       <c r="H8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J8" t="n">
         <v>1600</v>
@@ -2101,7 +2050,7 @@
         <v>474042</v>
       </c>
       <c r="S8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T8" t="n">
         <v>-9.79533</v>
@@ -2113,109 +2062,103 @@
         <v>3540</v>
       </c>
       <c r="W8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y8" s="1" t="n">
         <v>42241</v>
       </c>
       <c r="Z8"/>
       <c r="AA8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AC8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AD8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AF8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AG8" t="n">
         <v>47</v>
       </c>
       <c r="AH8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>480012</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-9.79533</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-76.6662</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>3540</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>472052</v>
+      </c>
+      <c r="AR8" t="s">
         <v>63</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AS8" t="n">
+        <v>-9.79533</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-76.6662</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>3540</v>
+      </c>
+      <c r="AV8" t="s">
         <v>64</v>
       </c>
-      <c r="AJ8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>480012</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>-9.79533</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>-76.6662</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>3540</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>472052</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>-9.79533</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>-76.6662</v>
-      </c>
       <c r="AW8" t="n">
-        <v>3540</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>67</v>
+        <v>478022</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>24</v>
       </c>
       <c r="AY8" t="n">
-        <v>478022</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA8" t="n">
         <v>365</v>
       </c>
-      <c r="BB8" t="s">
-        <v>60</v>
+      <c r="AZ8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B9" t="n">
         <v>159722</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D9" t="n">
         <v>-14.0726</v>
@@ -2230,10 +2173,10 @@
         <v>2005</v>
       </c>
       <c r="H9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J9" t="n">
         <v>800</v>
@@ -2263,7 +2206,7 @@
         <v>475069</v>
       </c>
       <c r="S9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="T9" t="n">
         <v>-14.0726</v>
@@ -2275,109 +2218,103 @@
         <v>447</v>
       </c>
       <c r="W9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y9" s="1" t="n">
         <v>42357</v>
       </c>
       <c r="Z9"/>
       <c r="AA9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AC9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AD9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AF9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AG9" t="n">
         <v>32</v>
       </c>
       <c r="AH9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>481039</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-14.0726</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>-75.6893</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>447</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>473079</v>
+      </c>
+      <c r="AR9" t="s">
         <v>63</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AS9" t="n">
+        <v>-14.0726</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>-75.6893</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>447</v>
+      </c>
+      <c r="AV9" t="s">
         <v>64</v>
       </c>
-      <c r="AJ9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>481039</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>-14.0726</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>-75.6893</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>447</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>473079</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>-14.0726</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>-75.6893</v>
-      </c>
       <c r="AW9" t="n">
-        <v>447</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>67</v>
+        <v>479049</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0</v>
       </c>
       <c r="AY9" t="n">
-        <v>479049</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA9" t="n">
         <v>200</v>
       </c>
-      <c r="BB9" t="s">
-        <v>60</v>
+      <c r="AZ9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B10" t="n">
         <v>159725</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D10" t="n">
         <v>-14.0062</v>
@@ -2392,10 +2329,10 @@
         <v>2000</v>
       </c>
       <c r="H10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J10" t="n">
         <v>1031.25</v>
@@ -2425,7 +2362,7 @@
         <v>473982</v>
       </c>
       <c r="S10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="T10" t="n">
         <v>-14.0062</v>
@@ -2437,109 +2374,103 @@
         <v>473</v>
       </c>
       <c r="W10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y10" s="1" t="n">
         <v>42157</v>
       </c>
       <c r="Z10"/>
       <c r="AA10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AC10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AD10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AF10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AG10" t="n">
         <v>6</v>
       </c>
       <c r="AH10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>479952</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>-14.0062</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>-75.756</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>473</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>471992</v>
+      </c>
+      <c r="AR10" t="s">
         <v>63</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AS10" t="n">
+        <v>-14.0062</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>-75.756</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>473</v>
+      </c>
+      <c r="AV10" t="s">
         <v>64</v>
       </c>
-      <c r="AJ10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>479952</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>-14.0062</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>-75.756</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>473</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>471992</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>-14.0062</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>-75.756</v>
-      </c>
       <c r="AW10" t="n">
-        <v>473</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>67</v>
+        <v>477962</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
       </c>
       <c r="AY10" t="n">
-        <v>477962</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA10" t="n">
         <v>250</v>
       </c>
-      <c r="BB10" t="s">
-        <v>60</v>
+      <c r="AZ10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B11" t="n">
         <v>159742</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D11" t="n">
         <v>-14.1392</v>
@@ -2554,10 +2485,10 @@
         <v>2009</v>
       </c>
       <c r="H11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J11" t="n">
         <v>20</v>
@@ -2587,7 +2518,7 @@
         <v>474596</v>
       </c>
       <c r="S11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="T11" t="n">
         <v>-14.1392</v>
@@ -2599,109 +2530,103 @@
         <v>535</v>
       </c>
       <c r="W11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y11" s="1" t="n">
         <v>42268</v>
       </c>
       <c r="Z11"/>
       <c r="AA11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AC11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AD11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AF11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AG11" t="n">
         <v>1</v>
       </c>
       <c r="AH11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>480566</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-14.1392</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>-75.5755</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>535</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>472606</v>
+      </c>
+      <c r="AR11" t="s">
         <v>63</v>
       </c>
-      <c r="AI11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>480566</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP11" t="n">
+      <c r="AS11" t="n">
         <v>-14.1392</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AT11" t="n">
         <v>-75.5755</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="AU11" t="n">
         <v>535</v>
       </c>
-      <c r="AS11" t="n">
-        <v>472606</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>-14.1392</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>-75.5755</v>
+      <c r="AV11" t="s">
+        <v>58</v>
       </c>
       <c r="AW11" t="n">
-        <v>535</v>
-      </c>
-      <c r="AX11" t="s">
-        <v>60</v>
+        <v>478576</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>8</v>
       </c>
       <c r="AY11" t="n">
-        <v>478576</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>8</v>
-      </c>
-      <c r="BA11" t="n">
         <v>90</v>
       </c>
-      <c r="BB11" t="s">
-        <v>60</v>
+      <c r="AZ11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B12" t="n">
         <v>159751</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D12" t="n">
         <v>-13.4577</v>
@@ -2716,10 +2641,10 @@
         <v>2012</v>
       </c>
       <c r="H12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J12" t="n">
         <v>232</v>
@@ -2749,7 +2674,7 @@
         <v>473866</v>
       </c>
       <c r="S12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="T12" t="n">
         <v>-13.4577</v>
@@ -2761,109 +2686,103 @@
         <v>92</v>
       </c>
       <c r="W12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y12" s="1" t="n">
         <v>42206</v>
       </c>
       <c r="Z12"/>
       <c r="AA12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AC12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AD12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AF12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AG12" t="n">
         <v>11</v>
       </c>
       <c r="AH12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>479836</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>-13.4577</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>-76.116</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>92</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>471876</v>
+      </c>
+      <c r="AR12" t="s">
         <v>63</v>
       </c>
-      <c r="AI12" t="s">
+      <c r="AS12" t="n">
+        <v>-13.4577</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>-76.116</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>92</v>
+      </c>
+      <c r="AV12" t="s">
         <v>64</v>
       </c>
-      <c r="AJ12" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>479836</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>-13.4577</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>-76.116</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>92</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>471876</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>-13.4577</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>-76.116</v>
-      </c>
       <c r="AW12" t="n">
-        <v>92</v>
-      </c>
-      <c r="AX12" t="s">
-        <v>67</v>
+        <v>477846</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>12</v>
       </c>
       <c r="AY12" t="n">
-        <v>477846</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>58</v>
-      </c>
-      <c r="BB12" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B13" t="n">
         <v>159752</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D13" t="n">
         <v>-13.4703</v>
@@ -2878,10 +2797,10 @@
         <v>2008</v>
       </c>
       <c r="H13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J13" t="n">
         <v>120</v>
@@ -2911,7 +2830,7 @@
         <v>473869</v>
       </c>
       <c r="S13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="T13" t="n">
         <v>-13.4703</v>
@@ -2923,109 +2842,103 @@
         <v>132</v>
       </c>
       <c r="W13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y13" s="1" t="n">
         <v>42206</v>
       </c>
       <c r="Z13"/>
       <c r="AA13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AC13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AD13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AF13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AG13" t="n">
         <v>2</v>
       </c>
       <c r="AH13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>479839</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>-13.4703</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>-76.0857</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>132</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>471879</v>
+      </c>
+      <c r="AR13" t="s">
         <v>63</v>
       </c>
-      <c r="AI13" t="s">
+      <c r="AS13" t="n">
+        <v>-13.4703</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>-76.0857</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>132</v>
+      </c>
+      <c r="AV13" t="s">
         <v>64</v>
       </c>
-      <c r="AJ13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>479839</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>-13.4703</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>-76.0857</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>132</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>471879</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>-13.4703</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>-76.0857</v>
-      </c>
       <c r="AW13" t="n">
-        <v>132</v>
-      </c>
-      <c r="AX13" t="s">
-        <v>67</v>
+        <v>477849</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>24</v>
       </c>
       <c r="AY13" t="n">
-        <v>477849</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>60</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>60</v>
+        <v>60</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B14" t="n">
         <v>159770</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D14" t="n">
         <v>-13.5387</v>
@@ -3040,10 +2953,10 @@
         <v>2006</v>
       </c>
       <c r="H14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J14" t="n">
         <v>450</v>
@@ -3073,7 +2986,7 @@
         <v>475113</v>
       </c>
       <c r="S14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="T14" t="n">
         <v>-13.5387</v>
@@ -3085,109 +2998,103 @@
         <v>72</v>
       </c>
       <c r="W14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y14" s="1" t="n">
         <v>42344</v>
       </c>
       <c r="Z14"/>
       <c r="AA14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AC14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AD14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AF14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AG14" t="n">
         <v>50</v>
       </c>
       <c r="AH14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>481083</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>-13.5387</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>-76.1333</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>72</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>473123</v>
+      </c>
+      <c r="AR14" t="s">
         <v>63</v>
       </c>
-      <c r="AI14" t="s">
+      <c r="AS14" t="n">
+        <v>-13.5387</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>-76.1333</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>72</v>
+      </c>
+      <c r="AV14" t="s">
         <v>64</v>
       </c>
-      <c r="AJ14" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>481083</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>-13.5387</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>-76.1333</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>72</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>473123</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>-13.5387</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>-76.1333</v>
-      </c>
       <c r="AW14" t="n">
-        <v>72</v>
-      </c>
-      <c r="AX14" t="s">
-        <v>67</v>
+        <v>479093</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>4</v>
       </c>
       <c r="AY14" t="n">
-        <v>479093</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>4</v>
-      </c>
-      <c r="BA14" t="n">
         <v>110</v>
       </c>
-      <c r="BB14" t="s">
-        <v>60</v>
+      <c r="AZ14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B15" t="n">
         <v>159771</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D15" t="n">
         <v>-13.4804</v>
@@ -3202,10 +3109,10 @@
         <v>2000</v>
       </c>
       <c r="H15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J15" t="n">
         <v>1080</v>
@@ -3235,7 +3142,7 @@
         <v>475114</v>
       </c>
       <c r="S15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="T15" t="n">
         <v>-13.4804</v>
@@ -3247,109 +3154,103 @@
         <v>35</v>
       </c>
       <c r="W15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y15" s="1" t="n">
         <v>42344</v>
       </c>
       <c r="Z15"/>
       <c r="AA15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AC15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AD15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AF15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AG15" t="n">
         <v>35</v>
       </c>
       <c r="AH15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>481084</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>-13.4804</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>-76.1758</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>473124</v>
+      </c>
+      <c r="AR15" t="s">
         <v>63</v>
       </c>
-      <c r="AI15" t="s">
+      <c r="AS15" t="n">
+        <v>-13.4804</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>-76.1758</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>35</v>
+      </c>
+      <c r="AV15" t="s">
         <v>64</v>
       </c>
-      <c r="AJ15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>481084</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>-13.4804</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>-76.1758</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>35</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>473124</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>-13.4804</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>-76.1758</v>
-      </c>
       <c r="AW15" t="n">
-        <v>35</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>67</v>
+        <v>479094</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>24</v>
       </c>
       <c r="AY15" t="n">
-        <v>479094</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA15" t="n">
         <v>270</v>
       </c>
-      <c r="BB15" t="s">
-        <v>60</v>
+      <c r="AZ15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B16" t="n">
         <v>159775</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D16" t="n">
         <v>-13.4956</v>
@@ -3364,10 +3265,10 @@
         <v>2000</v>
       </c>
       <c r="H16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J16" t="n">
         <v>108</v>
@@ -3397,7 +3298,7 @@
         <v>475120</v>
       </c>
       <c r="S16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="T16" t="n">
         <v>-13.4956</v>
@@ -3409,109 +3310,103 @@
         <v>56</v>
       </c>
       <c r="W16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y16" s="1" t="n">
         <v>42343</v>
       </c>
       <c r="Z16"/>
       <c r="AA16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AC16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AD16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AF16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AG16" t="n">
         <v>25</v>
       </c>
       <c r="AH16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>481090</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>-13.4956</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>-76.1517</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>56</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>473130</v>
+      </c>
+      <c r="AR16" t="s">
         <v>63</v>
       </c>
-      <c r="AI16" t="s">
+      <c r="AS16" t="n">
+        <v>-13.4956</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>-76.1517</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>56</v>
+      </c>
+      <c r="AV16" t="s">
         <v>64</v>
       </c>
-      <c r="AJ16" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>481090</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>-13.4956</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>-76.1517</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>56</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>473130</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>-13.4956</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>-76.1517</v>
-      </c>
       <c r="AW16" t="n">
-        <v>56</v>
-      </c>
-      <c r="AX16" t="s">
-        <v>67</v>
+        <v>479100</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>4</v>
       </c>
       <c r="AY16" t="n">
-        <v>479100</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>4</v>
-      </c>
-      <c r="BA16" t="n">
         <v>300</v>
       </c>
-      <c r="BB16" t="s">
-        <v>60</v>
+      <c r="AZ16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B17" t="n">
         <v>159776</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D17" t="n">
         <v>-13.5</v>
@@ -3526,10 +3421,10 @@
         <v>2002</v>
       </c>
       <c r="H17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J17" t="n">
         <v>540</v>
@@ -3559,7 +3454,7 @@
         <v>475124</v>
       </c>
       <c r="S17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="T17" t="n">
         <v>-13.5</v>
@@ -3571,109 +3466,103 @@
         <v>32</v>
       </c>
       <c r="W17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y17" s="1" t="n">
         <v>42345</v>
       </c>
       <c r="Z17"/>
       <c r="AA17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AC17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AD17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AF17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AG17" t="n">
         <v>25</v>
       </c>
       <c r="AH17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>481094</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>-76.1739</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>473134</v>
+      </c>
+      <c r="AR17" t="s">
         <v>63</v>
       </c>
-      <c r="AI17" t="s">
+      <c r="AS17" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>-76.1739</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AV17" t="s">
         <v>64</v>
       </c>
-      <c r="AJ17" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>481094</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>-13.5</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>-76.1739</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>32</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>473134</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>-13.5</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>-76.1739</v>
-      </c>
       <c r="AW17" t="n">
-        <v>32</v>
-      </c>
-      <c r="AX17" t="s">
-        <v>67</v>
+        <v>479104</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>24</v>
       </c>
       <c r="AY17" t="n">
-        <v>479104</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA17" t="n">
         <v>135</v>
       </c>
-      <c r="BB17" t="s">
-        <v>60</v>
+      <c r="AZ17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B18" t="n">
         <v>159779</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D18" t="n">
         <v>-13.5433</v>
@@ -3688,10 +3577,10 @@
         <v>1999</v>
       </c>
       <c r="H18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J18" t="n">
         <v>1720</v>
@@ -3721,7 +3610,7 @@
         <v>475154</v>
       </c>
       <c r="S18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="T18" t="n">
         <v>-13.5433</v>
@@ -3733,109 +3622,103 @@
         <v>28</v>
       </c>
       <c r="W18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y18" s="1" t="n">
         <v>42347</v>
       </c>
       <c r="Z18"/>
       <c r="AA18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AC18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AD18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AF18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AG18" t="n">
         <v>25</v>
       </c>
       <c r="AH18" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>481124</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>-13.5433</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>-76.1793</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>473164</v>
+      </c>
+      <c r="AR18" t="s">
         <v>63</v>
       </c>
-      <c r="AI18" t="s">
+      <c r="AS18" t="n">
+        <v>-13.5433</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>-76.1793</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AV18" t="s">
         <v>64</v>
       </c>
-      <c r="AJ18" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>481124</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>-13.5433</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>-76.1793</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>28</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>473164</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>-13.5433</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>-76.1793</v>
-      </c>
       <c r="AW18" t="n">
-        <v>28</v>
-      </c>
-      <c r="AX18" t="s">
-        <v>67</v>
+        <v>479134</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>24</v>
       </c>
       <c r="AY18" t="n">
-        <v>479134</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA18" t="n">
         <v>400</v>
       </c>
-      <c r="BB18" t="s">
-        <v>60</v>
+      <c r="AZ18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B19" t="n">
         <v>159782</v>
       </c>
       <c r="C19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D19" t="n">
         <v>-13.4823</v>
@@ -3850,10 +3733,10 @@
         <v>2006</v>
       </c>
       <c r="H19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J19" t="n">
         <v>704</v>
@@ -3883,7 +3766,7 @@
         <v>473839</v>
       </c>
       <c r="S19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="T19" t="n">
         <v>-13.4823</v>
@@ -3895,109 +3778,103 @@
         <v>137</v>
       </c>
       <c r="W19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y19" s="1" t="n">
         <v>42197</v>
       </c>
       <c r="Z19"/>
       <c r="AA19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AC19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AD19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AF19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AG19" t="n">
         <v>7</v>
       </c>
       <c r="AH19" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>479809</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>-13.4823</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>-76.083</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>137</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>471849</v>
+      </c>
+      <c r="AR19" t="s">
         <v>63</v>
       </c>
-      <c r="AI19" t="s">
+      <c r="AS19" t="n">
+        <v>-13.4823</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>-76.083</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>137</v>
+      </c>
+      <c r="AV19" t="s">
         <v>64</v>
       </c>
-      <c r="AJ19" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>479809</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>-13.4823</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>-76.083</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>137</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>471849</v>
-      </c>
-      <c r="AT19" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>-13.4823</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>-76.083</v>
-      </c>
       <c r="AW19" t="n">
-        <v>137</v>
-      </c>
-      <c r="AX19" t="s">
-        <v>67</v>
+        <v>477819</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>24</v>
       </c>
       <c r="AY19" t="n">
-        <v>477819</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA19" t="n">
         <v>166</v>
       </c>
-      <c r="BB19" t="s">
-        <v>60</v>
+      <c r="AZ19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B20" t="n">
         <v>159784</v>
       </c>
       <c r="C20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D20" t="n">
         <v>-13.5198</v>
@@ -4012,10 +3889,10 @@
         <v>1997</v>
       </c>
       <c r="H20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J20" t="n">
         <v>1328</v>
@@ -4045,7 +3922,7 @@
         <v>473852</v>
       </c>
       <c r="S20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="T20" t="n">
         <v>-13.5198</v>
@@ -4057,109 +3934,103 @@
         <v>153</v>
       </c>
       <c r="W20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y20" s="1" t="n">
         <v>42198</v>
       </c>
       <c r="Z20"/>
       <c r="AA20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AC20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AD20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AF20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AG20" t="n">
         <v>3</v>
       </c>
       <c r="AH20" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>479822</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>-13.5198</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>-76.0699</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>153</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>471862</v>
+      </c>
+      <c r="AR20" t="s">
         <v>63</v>
       </c>
-      <c r="AI20" t="s">
+      <c r="AS20" t="n">
+        <v>-13.5198</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>-76.0699</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>153</v>
+      </c>
+      <c r="AV20" t="s">
         <v>64</v>
       </c>
-      <c r="AJ20" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>479822</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>-13.5198</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>-76.0699</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>153</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>471862</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>-13.5198</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>-76.0699</v>
-      </c>
       <c r="AW20" t="n">
-        <v>153</v>
-      </c>
-      <c r="AX20" t="s">
-        <v>67</v>
+        <v>477832</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
       </c>
       <c r="AY20" t="n">
-        <v>477832</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA20" t="n">
         <v>332</v>
       </c>
-      <c r="BB20" t="s">
-        <v>60</v>
+      <c r="AZ20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B21" t="n">
         <v>159789</v>
       </c>
       <c r="C21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D21" t="n">
         <v>-13.4973</v>
@@ -4174,10 +4045,10 @@
         <v>2005</v>
       </c>
       <c r="H21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I21" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -4207,7 +4078,7 @@
         <v>473903</v>
       </c>
       <c r="S21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="T21" t="n">
         <v>-13.4973</v>
@@ -4219,109 +4090,103 @@
         <v>96</v>
       </c>
       <c r="W21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y21" s="1" t="n">
         <v>42197</v>
       </c>
       <c r="Z21"/>
       <c r="AA21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AC21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AD21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AF21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AG21" t="n">
         <v>4</v>
       </c>
       <c r="AH21" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>479873</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>-13.4973</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>-76.0932</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>96</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>471913</v>
+      </c>
+      <c r="AR21" t="s">
         <v>63</v>
       </c>
-      <c r="AI21" t="s">
+      <c r="AS21" t="n">
+        <v>-13.4973</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>-76.0932</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>96</v>
+      </c>
+      <c r="AV21" t="s">
         <v>64</v>
       </c>
-      <c r="AJ21" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>479873</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>-13.4973</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>-76.0932</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>96</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>471913</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>-13.4973</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>-76.0932</v>
-      </c>
       <c r="AW21" t="n">
-        <v>96</v>
-      </c>
-      <c r="AX21" t="s">
-        <v>67</v>
+        <v>477883</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>6</v>
       </c>
       <c r="AY21" t="n">
-        <v>477883</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB21" t="s">
-        <v>86</v>
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B22" t="n">
         <v>159793</v>
       </c>
       <c r="C22" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D22" t="n">
         <v>-13.5242</v>
@@ -4336,10 +4201,10 @@
         <v>2009</v>
       </c>
       <c r="H22" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J22" t="n">
         <v>540</v>
@@ -4369,7 +4234,7 @@
         <v>473970</v>
       </c>
       <c r="S22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="T22" t="n">
         <v>-13.5242</v>
@@ -4381,109 +4246,103 @@
         <v>48</v>
       </c>
       <c r="W22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y22" s="1" t="n">
         <v>42201</v>
       </c>
       <c r="Z22"/>
       <c r="AA22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AC22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AD22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AF22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AG22" t="n">
         <v>70</v>
       </c>
       <c r="AH22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>479940</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>-13.5242</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>-76.1384</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>48</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>471980</v>
+      </c>
+      <c r="AR22" t="s">
         <v>63</v>
       </c>
-      <c r="AI22" t="s">
+      <c r="AS22" t="n">
+        <v>-13.5242</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>-76.1384</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>48</v>
+      </c>
+      <c r="AV22" t="s">
         <v>64</v>
       </c>
-      <c r="AJ22" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>479940</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>-13.5242</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>-76.1384</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>48</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>471980</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>-13.5242</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>-76.1384</v>
-      </c>
       <c r="AW22" t="n">
-        <v>48</v>
-      </c>
-      <c r="AX22" t="s">
-        <v>67</v>
+        <v>477950</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>2</v>
       </c>
       <c r="AY22" t="n">
-        <v>477950</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA22" t="n">
         <v>150</v>
       </c>
-      <c r="BB22" t="s">
-        <v>60</v>
+      <c r="AZ22" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B23" t="n">
         <v>159794</v>
       </c>
       <c r="C23" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D23" t="n">
         <v>-13.5615</v>
@@ -4498,10 +4357,10 @@
         <v>2012</v>
       </c>
       <c r="H23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I23" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J23" t="n">
         <v>168</v>
@@ -4531,7 +4390,7 @@
         <v>473972</v>
       </c>
       <c r="S23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="T23" t="n">
         <v>-13.5615</v>
@@ -4543,109 +4402,103 @@
         <v>30</v>
       </c>
       <c r="W23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y23" s="1" t="n">
         <v>42201</v>
       </c>
       <c r="Z23"/>
       <c r="AA23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AC23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AD23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AF23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AG23" t="n">
         <v>75</v>
       </c>
       <c r="AH23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>479942</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>-13.5615</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>-76.163</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>471982</v>
+      </c>
+      <c r="AR23" t="s">
         <v>63</v>
       </c>
-      <c r="AI23" t="s">
+      <c r="AS23" t="n">
+        <v>-13.5615</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>-76.163</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>30</v>
+      </c>
+      <c r="AV23" t="s">
         <v>64</v>
       </c>
-      <c r="AJ23" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>479942</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>-13.5615</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>-76.163</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>30</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>471982</v>
-      </c>
-      <c r="AT23" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>-13.5615</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>-76.163</v>
-      </c>
       <c r="AW23" t="n">
-        <v>30</v>
-      </c>
-      <c r="AX23" t="s">
-        <v>67</v>
+        <v>477952</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>24</v>
       </c>
       <c r="AY23" t="n">
-        <v>477952</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA23" t="n">
         <v>42</v>
       </c>
-      <c r="BB23" t="s">
-        <v>60</v>
+      <c r="AZ23" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B24" t="n">
         <v>159798</v>
       </c>
       <c r="C24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D24" t="n">
         <v>-13.5496</v>
@@ -4660,10 +4513,10 @@
         <v>2007</v>
       </c>
       <c r="H24" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I24" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J24" t="n">
         <v>2280</v>
@@ -4693,7 +4546,7 @@
         <v>474630</v>
       </c>
       <c r="S24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="T24" t="n">
         <v>-13.5496</v>
@@ -4705,109 +4558,103 @@
         <v>90</v>
       </c>
       <c r="W24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y24" s="1" t="n">
         <v>42295</v>
       </c>
       <c r="Z24"/>
       <c r="AA24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AC24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AD24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AF24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AG24" t="n">
         <v>18</v>
       </c>
       <c r="AH24" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>480600</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>-13.5496</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>-76.1141</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>90</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>472640</v>
+      </c>
+      <c r="AR24" t="s">
         <v>63</v>
       </c>
-      <c r="AI24" t="s">
+      <c r="AS24" t="n">
+        <v>-13.5496</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>-76.1141</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>90</v>
+      </c>
+      <c r="AV24" t="s">
         <v>64</v>
       </c>
-      <c r="AJ24" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>480600</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>-13.5496</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>-76.1141</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>472640</v>
-      </c>
-      <c r="AT24" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>-13.5496</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>-76.1141</v>
-      </c>
       <c r="AW24" t="n">
-        <v>90</v>
-      </c>
-      <c r="AX24" t="s">
-        <v>67</v>
+        <v>478610</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>2</v>
       </c>
       <c r="AY24" t="n">
-        <v>478610</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA24" t="n">
         <v>600</v>
       </c>
-      <c r="BB24" t="s">
-        <v>60</v>
+      <c r="AZ24" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B25" t="n">
         <v>159838</v>
       </c>
       <c r="C25" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D25" t="n">
         <v>-13.7256</v>
@@ -4822,10 +4669,10 @@
         <v>1998</v>
       </c>
       <c r="H25" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J25" t="n">
         <v>373.333333333333</v>
@@ -4855,7 +4702,7 @@
         <v>474005</v>
       </c>
       <c r="S25" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="T25" t="n">
         <v>-13.7256</v>
@@ -4867,109 +4714,103 @@
         <v>254</v>
       </c>
       <c r="W25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y25" s="1" t="n">
         <v>42215</v>
       </c>
       <c r="Z25"/>
       <c r="AA25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AC25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AD25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AF25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AG25" t="n">
         <v>20</v>
       </c>
       <c r="AH25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>479975</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>-13.7256</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>-75.9989</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>254</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>472015</v>
+      </c>
+      <c r="AR25" t="s">
         <v>63</v>
       </c>
-      <c r="AI25" t="s">
+      <c r="AS25" t="n">
+        <v>-13.7256</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>-75.9989</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>254</v>
+      </c>
+      <c r="AV25" t="s">
         <v>64</v>
       </c>
-      <c r="AJ25" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>6</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>479975</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>-13.7256</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>-75.9989</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>254</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>472015</v>
-      </c>
-      <c r="AT25" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>-13.7256</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>-75.9989</v>
-      </c>
       <c r="AW25" t="n">
-        <v>254</v>
-      </c>
-      <c r="AX25" t="s">
-        <v>67</v>
+        <v>477985</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>2</v>
       </c>
       <c r="AY25" t="n">
-        <v>477985</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA25" t="n">
         <v>150</v>
       </c>
-      <c r="BB25" t="s">
-        <v>60</v>
+      <c r="AZ25" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B26" t="n">
         <v>159846</v>
       </c>
       <c r="C26" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D26" t="n">
         <v>-13.7131</v>
@@ -4984,10 +4825,10 @@
         <v>2012</v>
       </c>
       <c r="H26" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I26" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J26" t="n">
         <v>648</v>
@@ -5017,7 +4858,7 @@
         <v>473908</v>
       </c>
       <c r="S26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T26" t="n">
         <v>-13.7131</v>
@@ -5029,109 +4870,103 @@
         <v>283</v>
       </c>
       <c r="W26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y26" s="1" t="n">
         <v>42207</v>
       </c>
       <c r="Z26"/>
       <c r="AA26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AC26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AD26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AF26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AG26" t="n">
         <v>28</v>
       </c>
       <c r="AH26" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>479878</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>-13.7131</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>-75.9786</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>283</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>471918</v>
+      </c>
+      <c r="AR26" t="s">
         <v>63</v>
       </c>
-      <c r="AI26" t="s">
+      <c r="AS26" t="n">
+        <v>-13.7131</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>-75.9786</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>283</v>
+      </c>
+      <c r="AV26" t="s">
         <v>64</v>
       </c>
-      <c r="AJ26" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>479878</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>-13.7131</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>-75.9786</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>283</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>471918</v>
-      </c>
-      <c r="AT26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>-13.7131</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>-75.9786</v>
-      </c>
       <c r="AW26" t="n">
-        <v>283</v>
-      </c>
-      <c r="AX26" t="s">
-        <v>67</v>
+        <v>477888</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>2</v>
       </c>
       <c r="AY26" t="n">
-        <v>477888</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA26" t="n">
         <v>137</v>
       </c>
-      <c r="BB26" t="s">
-        <v>60</v>
+      <c r="AZ26" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B27" t="n">
         <v>159878</v>
       </c>
       <c r="C27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D27" t="n">
         <v>-13.6808</v>
@@ -5146,10 +4981,10 @@
         <v>2008</v>
       </c>
       <c r="H27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I27" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J27" t="n">
         <v>20000</v>
@@ -5179,7 +5014,7 @@
         <v>473967</v>
       </c>
       <c r="S27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="T27" t="n">
         <v>-13.6808</v>
@@ -5191,109 +5026,103 @@
         <v>98</v>
       </c>
       <c r="W27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y27" s="1" t="n">
         <v>42206</v>
       </c>
       <c r="Z27"/>
       <c r="AA27" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AB27" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AC27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AD27" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AE27" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AF27" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AG27" t="n">
         <v>15</v>
       </c>
       <c r="AH27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>479937</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>-13.6808</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>-76.1575</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>98</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>471977</v>
+      </c>
+      <c r="AR27" t="s">
         <v>63</v>
       </c>
-      <c r="AI27" t="s">
+      <c r="AS27" t="n">
+        <v>-13.6808</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>-76.1575</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>98</v>
+      </c>
+      <c r="AV27" t="s">
         <v>64</v>
       </c>
-      <c r="AJ27" t="s">
+      <c r="AW27" t="n">
+        <v>477947</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AZ27" t="s">
         <v>64</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL27" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>479937</v>
-      </c>
-      <c r="AN27" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>-13.6808</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>-76.1575</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>98</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>471977</v>
-      </c>
-      <c r="AT27" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>-13.6808</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>-76.1575</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>98</v>
-      </c>
-      <c r="AX27" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>477947</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>5000</v>
-      </c>
-      <c r="BB27" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B28" t="n">
         <v>159879</v>
       </c>
       <c r="C28" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D28" t="n">
         <v>-13.6416</v>
@@ -5308,10 +5137,10 @@
         <v>2011</v>
       </c>
       <c r="H28" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J28" t="n">
         <v>400</v>
@@ -5341,7 +5170,7 @@
         <v>473989</v>
       </c>
       <c r="S28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="T28" t="n">
         <v>-13.6416</v>
@@ -5353,109 +5182,103 @@
         <v>109</v>
       </c>
       <c r="W28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y28" s="1" t="n">
         <v>42206</v>
       </c>
       <c r="Z28"/>
       <c r="AA28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AC28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AD28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AF28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AG28" t="n">
         <v>15</v>
       </c>
       <c r="AH28" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>479959</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>-13.6416</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>-76.1077</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>109</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>471999</v>
+      </c>
+      <c r="AR28" t="s">
         <v>63</v>
       </c>
-      <c r="AI28" t="s">
+      <c r="AS28" t="n">
+        <v>-13.6416</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>-76.1077</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>109</v>
+      </c>
+      <c r="AV28" t="s">
         <v>64</v>
       </c>
-      <c r="AJ28" t="s">
+      <c r="AW28" t="n">
+        <v>477969</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>100</v>
+      </c>
+      <c r="AZ28" t="s">
         <v>64</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>479959</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>-13.6416</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>-76.1077</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>109</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>471999</v>
-      </c>
-      <c r="AT28" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>-13.6416</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>-76.1077</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>109</v>
-      </c>
-      <c r="AX28" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>477969</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>100</v>
-      </c>
-      <c r="BB28" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B29" t="n">
         <v>159935</v>
       </c>
       <c r="C29" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D29" t="n">
         <v>-12.1413</v>
@@ -5470,10 +5293,10 @@
         <v>1969</v>
       </c>
       <c r="H29" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I29" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J29" t="n">
         <v>671.72972972973</v>
@@ -5503,7 +5326,7 @@
         <v>473831</v>
       </c>
       <c r="S29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T29" t="n">
         <v>-12.1413</v>
@@ -5515,109 +5338,103 @@
         <v>3310</v>
       </c>
       <c r="W29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y29" s="1" t="n">
         <v>42194</v>
       </c>
       <c r="Z29"/>
       <c r="AA29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AC29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AD29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AF29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AG29" t="n">
         <v>4</v>
       </c>
       <c r="AH29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>479801</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>-12.1413</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>-75.1579</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>3310</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>471841</v>
+      </c>
+      <c r="AR29" t="s">
         <v>63</v>
       </c>
-      <c r="AI29" t="s">
+      <c r="AS29" t="n">
+        <v>-12.1413</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>-75.1579</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>3310</v>
+      </c>
+      <c r="AV29" t="s">
         <v>64</v>
       </c>
-      <c r="AJ29" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL29" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>479801</v>
-      </c>
-      <c r="AN29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>-12.1413</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>-75.1579</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>3310</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>471841</v>
-      </c>
-      <c r="AT29" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>-12.1413</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>-75.1579</v>
-      </c>
       <c r="AW29" t="n">
-        <v>3310</v>
-      </c>
-      <c r="AX29" t="s">
-        <v>67</v>
+        <v>477811</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>24</v>
       </c>
       <c r="AY29" t="n">
-        <v>477811</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA29" t="n">
         <v>680</v>
       </c>
-      <c r="BB29" t="s">
-        <v>60</v>
+      <c r="AZ29" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B30" t="n">
         <v>159940</v>
       </c>
       <c r="C30" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D30" t="n">
         <v>-11.9579</v>
@@ -5632,10 +5449,10 @@
         <v>1969</v>
       </c>
       <c r="H30" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I30" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J30" t="n">
         <v>1057.69230769231</v>
@@ -5665,7 +5482,7 @@
         <v>473678</v>
       </c>
       <c r="S30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T30" t="n">
         <v>-11.9579</v>
@@ -5677,109 +5494,103 @@
         <v>3465</v>
       </c>
       <c r="W30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X30" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Y30" s="1" t="n">
         <v>42194</v>
       </c>
       <c r="Z30"/>
       <c r="AA30" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AB30" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AC30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AD30" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AE30" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AF30" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AG30" t="n">
         <v>3</v>
       </c>
       <c r="AH30" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>479648</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>-11.9579</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>-75.368</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>3465</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>471688</v>
+      </c>
+      <c r="AR30" t="s">
         <v>63</v>
       </c>
-      <c r="AI30" t="s">
+      <c r="AS30" t="n">
+        <v>-11.9579</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>-75.368</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>3465</v>
+      </c>
+      <c r="AV30" t="s">
         <v>64</v>
       </c>
-      <c r="AJ30" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>479648</v>
-      </c>
-      <c r="AN30" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>-11.9579</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>-75.368</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>3465</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>471688</v>
-      </c>
-      <c r="AT30" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>-11.9579</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>-75.368</v>
-      </c>
       <c r="AW30" t="n">
-        <v>3465</v>
-      </c>
-      <c r="AX30" t="s">
-        <v>67</v>
+        <v>477658</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>24</v>
       </c>
       <c r="AY30" t="n">
-        <v>477658</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA30" t="n">
         <v>780</v>
       </c>
-      <c r="BB30" t="s">
-        <v>60</v>
+      <c r="AZ30" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B31" t="n">
         <v>159959</v>
       </c>
       <c r="C31" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D31" t="n">
         <v>-11.6916</v>
@@ -5794,10 +5605,10 @@
         <v>2014</v>
       </c>
       <c r="H31" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I31" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J31" t="n">
         <v>125</v>
@@ -5827,7 +5638,7 @@
         <v>473859</v>
       </c>
       <c r="S31" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T31" t="n">
         <v>-11.6916</v>
@@ -5839,109 +5650,103 @@
         <v>3272</v>
       </c>
       <c r="W31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y31" s="1" t="n">
         <v>42200</v>
       </c>
       <c r="Z31"/>
       <c r="AA31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AC31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AD31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AF31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AG31" t="n">
         <v>2</v>
       </c>
       <c r="AH31" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>479829</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>-11.6916</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>-75.0895</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>3272</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>471869</v>
+      </c>
+      <c r="AR31" t="s">
         <v>63</v>
       </c>
-      <c r="AI31" t="s">
+      <c r="AS31" t="n">
+        <v>-11.6916</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>-75.0895</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>3272</v>
+      </c>
+      <c r="AV31" t="s">
         <v>64</v>
       </c>
-      <c r="AJ31" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>479829</v>
-      </c>
-      <c r="AN31" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>-11.6916</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>-75.0895</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>3272</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>471869</v>
-      </c>
-      <c r="AT31" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>-11.6916</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>-75.0895</v>
-      </c>
       <c r="AW31" t="n">
-        <v>3272</v>
-      </c>
-      <c r="AX31" t="s">
-        <v>67</v>
+        <v>477839</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>24</v>
       </c>
       <c r="AY31" t="n">
-        <v>477839</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA31" t="n">
         <v>25</v>
       </c>
-      <c r="BB31" t="s">
-        <v>60</v>
+      <c r="AZ31" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B32" t="n">
         <v>160015</v>
       </c>
       <c r="C32" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D32" t="n">
         <v>-10.8996</v>
@@ -5956,10 +5761,10 @@
         <v>2008</v>
       </c>
       <c r="H32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I32" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J32" t="n">
         <v>285</v>
@@ -5989,7 +5794,7 @@
         <v>474173</v>
       </c>
       <c r="S32" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T32" t="n">
         <v>-10.8996</v>
@@ -6001,109 +5806,103 @@
         <v>1321</v>
       </c>
       <c r="W32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X32" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Y32" s="1" t="n">
         <v>42257</v>
       </c>
       <c r="Z32"/>
       <c r="AA32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="s">
         <v>61</v>
       </c>
-      <c r="AB32" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC32" t="s">
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="s">
         <v>62</v>
       </c>
-      <c r="AD32" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH32" t="s">
+      <c r="AK32" t="n">
+        <v>480143</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>-10.8996</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>-75.2266</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>1321</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>472183</v>
+      </c>
+      <c r="AR32" t="s">
         <v>63</v>
       </c>
-      <c r="AI32" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>480143</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO32" t="b">
+      <c r="AS32" t="n">
+        <v>-10.8996</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>-75.2266</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>1321</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>478153</v>
+      </c>
+      <c r="AX32" t="n">
         <v>1</v>
       </c>
-      <c r="AP32" t="n">
-        <v>-10.8996</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>-75.2266</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>1321</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>472183</v>
-      </c>
-      <c r="AT32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>-10.8996</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>-75.2266</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>1321</v>
-      </c>
-      <c r="AX32" t="s">
-        <v>60</v>
-      </c>
       <c r="AY32" t="n">
-        <v>478153</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>60</v>
-      </c>
-      <c r="BB32" t="s">
-        <v>60</v>
+        <v>60</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B33" t="n">
         <v>160034</v>
       </c>
       <c r="C33" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D33" t="n">
         <v>-10.9246</v>
@@ -6118,10 +5917,10 @@
         <v>1990</v>
       </c>
       <c r="H33" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I33" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J33" t="n">
         <v>190</v>
@@ -6151,7 +5950,7 @@
         <v>474300</v>
       </c>
       <c r="S33" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T33" t="n">
         <v>-10.9246</v>
@@ -6163,98 +5962,92 @@
         <v>681</v>
       </c>
       <c r="W33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y33" s="1" t="n">
         <v>42253</v>
       </c>
       <c r="Z33"/>
       <c r="AA33" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="s">
         <v>61</v>
       </c>
-      <c r="AB33" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC33" t="s">
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="s">
         <v>62</v>
       </c>
-      <c r="AD33" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="s">
+      <c r="AK33" t="n">
+        <v>480270</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>-10.9246</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>-75.236</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>681</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>472310</v>
+      </c>
+      <c r="AR33" t="s">
         <v>63</v>
       </c>
-      <c r="AI33" t="s">
+      <c r="AS33" t="n">
+        <v>-10.9246</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>-75.236</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>681</v>
+      </c>
+      <c r="AV33" t="s">
         <v>64</v>
       </c>
-      <c r="AJ33" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>480270</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>-10.9246</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>-75.236</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>681</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>472310</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>-10.9246</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>-75.236</v>
-      </c>
       <c r="AW33" t="n">
-        <v>681</v>
-      </c>
-      <c r="AX33" t="s">
-        <v>67</v>
+        <v>478280</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>24</v>
       </c>
       <c r="AY33" t="n">
-        <v>478280</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA33" t="n">
         <v>50</v>
       </c>
-      <c r="BB33" t="s">
-        <v>60</v>
+      <c r="AZ33" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
